--- a/daschland_ontology/metadata (Metadata)/properties.xlsx
+++ b/daschland_ontology/metadata (Metadata)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECCC678-3CC0-A442-B130-D33F8D21AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59C101-1CAE-7F4C-A2C1-0145D1DFF7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="500" windowWidth="34560" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21820" yWindow="500" windowWidth="53980" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -513,36 +513,70 @@
     <t>hasValue, schema:identifier, crm:P1_is_identified_by</t>
   </si>
   <si>
-    <t>hasAuthorship</t>
-  </si>
-  <si>
-    <t>Authorship</t>
-  </si>
-  <si>
-    <t>Urheber:in</t>
-  </si>
-  <si>
-    <t>Auteur·ice</t>
-  </si>
-  <si>
-    <t>Autore</t>
-  </si>
-  <si>
-    <t>Author or creator of the file</t>
-  </si>
-  <si>
     <t>hasValue, foaf:person, schema:author, crm:E21_Person</t>
+  </si>
+  <si>
+    <t>hasAuthorshipResource</t>
+  </si>
+  <si>
+    <t>Author of the resource</t>
+  </si>
+  <si>
+    <t>Autor der Resource</t>
+  </si>
+  <si>
+    <t>Auteur·rice de la ressource</t>
+  </si>
+  <si>
+    <t>Autore della risorsa</t>
+  </si>
+  <si>
+    <t>hasCopyrightResource</t>
+  </si>
+  <si>
+    <t>Copyright of the resource</t>
+  </si>
+  <si>
+    <t>Urheberrecht der Resource</t>
+  </si>
+  <si>
+    <t>Droits d'auteur de la ressource</t>
+  </si>
+  <si>
+    <t>Copyright della risorsa</t>
+  </si>
+  <si>
+    <t>hasLicenseResource</t>
+  </si>
+  <si>
+    <t>License of the resource</t>
+  </si>
+  <si>
+    <t>Lizenz der Resource</t>
+  </si>
+  <si>
+    <t>Licence de la ressource</t>
+  </si>
+  <si>
+    <t>Licenza della risorsa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,6 +656,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -649,21 +690,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,11 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q888"/>
+  <dimension ref="A1:Q887"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1162,42 +1205,124 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="O10" s="14"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2074,7 +2199,6 @@
     <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q36">

--- a/daschland_ontology/metadata (Metadata)/properties.xlsx
+++ b/daschland_ontology/metadata (Metadata)/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59C101-1CAE-7F4C-A2C1-0145D1DFF7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF780B2-2F57-0744-8DDA-BF1BA2AE7ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="500" windowWidth="53980" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="500" windowWidth="60400" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -559,13 +559,16 @@
   </si>
   <si>
     <t>Licenza della risorsa</t>
+  </si>
+  <si>
+    <t>default_permissions_overrule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,6 +666,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -690,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -707,6 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,9 +935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -996,6 +1007,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/daschland_ontology/metadata (Metadata)/properties.xlsx
+++ b/daschland_ontology/metadata (Metadata)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59C101-1CAE-7F4C-A2C1-0145D1DFF7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94516B4-B681-8648-AC99-0084911BA9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21820" yWindow="500" windowWidth="53980" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -559,13 +559,16 @@
   </si>
   <si>
     <t>Licenza della risorsa</t>
+  </si>
+  <si>
+    <t>default_permissions_overrule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,6 +666,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -690,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -707,6 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,9 +935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -996,6 +1007,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
